--- a/新闻api意见反馈.xlsx
+++ b/新闻api意见反馈.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="万维易源" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="州讯互联" sheetId="5" r:id="rId5"/>
     <sheet name="进制数据" sheetId="6" r:id="rId6"/>
     <sheet name="极速数据" sheetId="7" r:id="rId7"/>
+    <sheet name="天行数据TianAPI" sheetId="8" r:id="rId8"/>
+    <sheet name="六派数据" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>1.接後能轉繁體嗎？有片能提供嗎？</t>
   </si>
@@ -108,6 +110,18 @@
   </si>
   <si>
     <t>答:视频内容返回视频,图文内容返回图文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答:没有繁体的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答:这个字数没有限制的，图片只有一张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.片是指短视频，看有没有源是能有视频的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,10 +176,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -463,24 +477,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -527,31 +541,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="2" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:30" s="1" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -621,57 +635,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="2" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:30" s="1" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -827,7 +841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -870,4 +884,96 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/新闻api意见反馈.xlsx
+++ b/新闻api意见反馈.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian.fang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\test\2ddw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -937,7 +937,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
